--- a/Master Thesis/Analys/IndexFragmentation.xlsx
+++ b/Master Thesis/Analys/IndexFragmentation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Masked" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Index Name</t>
+  </si>
+  <si>
+    <t>External Fragmentation</t>
+  </si>
+  <si>
+    <t>Internal Fragmentation</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>PK_CUSTOMER_1</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>PK_SUPPLIER_1</t>
+  </si>
+  <si>
+    <t>SALESPERSON</t>
+  </si>
+  <si>
+    <t>PK_SALESPERSON</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>PK_COUNTRY_1</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>PK_PROGRAM_1</t>
+  </si>
+  <si>
+    <t>PK_REPORT_2_6</t>
+  </si>
+  <si>
+    <t>IX_COMPILED_ST_2</t>
+  </si>
+  <si>
+    <t>COMPILED_ST</t>
+  </si>
+  <si>
+    <t>IX_COMPILED_ST_1</t>
+  </si>
+  <si>
+    <t>CUSTOMER_B_L_E</t>
+  </si>
+  <si>
+    <t>SALES_H</t>
+  </si>
+  <si>
+    <t>PK_SALES_H</t>
+  </si>
+  <si>
+    <t>REPORT_R_1_1_1</t>
+  </si>
+  <si>
+    <t>REPORT_R_4_4</t>
+  </si>
+  <si>
+    <t>PK_REPORT_R_4_4</t>
+  </si>
+  <si>
+    <t>IX_REPORT_R_1_1_1_2</t>
+  </si>
+  <si>
+    <t>REPORT_R_1_1_2</t>
+  </si>
+  <si>
+    <t>IX_REPORT_R_1_1_2_3</t>
+  </si>
+  <si>
+    <t>REPORT_R_1_1_5</t>
+  </si>
+  <si>
+    <t>PK_REPORT_R_1_5</t>
+  </si>
+  <si>
+    <t>REPORT_R_2_1_1</t>
+  </si>
+  <si>
+    <t>PK_REPORT_R_2_1_1</t>
+  </si>
+  <si>
+    <t>IX_REPORT_R_1_1_2_2</t>
+  </si>
+  <si>
+    <t>REPORT_R_3_1</t>
+  </si>
+  <si>
+    <t>PK_REPORT_R_3_1</t>
+  </si>
+  <si>
+    <t>REPORT_R_2_6</t>
+  </si>
+  <si>
+    <t>REPORT_R_2_5</t>
+  </si>
+  <si>
+    <t>PK_REPORT_R_2_5</t>
+  </si>
+  <si>
+    <t>ITEM_I</t>
+  </si>
+  <si>
+    <t>PK_ITEM_I</t>
+  </si>
+  <si>
+    <t>SALES_I_H</t>
+  </si>
+  <si>
+    <t>PK_SALES_I_H</t>
+  </si>
+  <si>
+    <t>SALES_CR_M_H</t>
+  </si>
+  <si>
+    <t>PK_SALES_CR_M_H</t>
+  </si>
+  <si>
+    <t>HISTORY_M</t>
+  </si>
+  <si>
+    <t>PK_HISTORY_M</t>
+  </si>
+  <si>
+    <t>IX_CUSTOMER_B_L_E</t>
+  </si>
+  <si>
+    <t>PK_C_1</t>
+  </si>
+  <si>
+    <t>IX_C_1</t>
+  </si>
+  <si>
+    <t>_dta_index_S_CR_M_H</t>
+  </si>
+  <si>
+    <t>_POSANA_dta_i_C</t>
+  </si>
+  <si>
+    <t>_dta_index_S_I_H</t>
+  </si>
+  <si>
+    <t>_dta_index_S_H_S</t>
+  </si>
+  <si>
+    <t>IX_REPORT_R</t>
+  </si>
+  <si>
+    <t>_REST_dta_index_S_H</t>
+  </si>
+  <si>
+    <t>_dta_index_S_H_</t>
+  </si>
+  <si>
+    <t>_dta_TRANS_i_H_M</t>
+  </si>
+  <si>
+    <t>_dta_index_S_H_M1</t>
+  </si>
   <si>
     <t>EXT_COMPILED_STATS</t>
   </si>
@@ -158,18 +330,36 @@
     <t>IX_EXT_REPORT_RESULT_1_1_2_2</t>
   </si>
   <si>
+    <t>ITEM_LEDGER_ENTRY_test</t>
+  </si>
+  <si>
+    <t>NonClusteredIndex-20131226-181122</t>
+  </si>
+  <si>
     <t>PK_EXT_SALES_HEADER</t>
   </si>
   <si>
     <t>_dta_index_EXT_SALES_HEADER_Matrix1</t>
   </si>
   <si>
+    <t>IX_STOCK1</t>
+  </si>
+  <si>
     <t>EXT_REPORT_RESULT_3_1</t>
   </si>
   <si>
     <t>PK_EXT_REPORT_RESULT_3_1</t>
   </si>
   <si>
+    <t>IX_ITEM_LEDGER_ENTRY_test</t>
+  </si>
+  <si>
+    <t>IX_ITEM_LEDGER_ENTRY_test_1</t>
+  </si>
+  <si>
+    <t>_POSANA_dta_index_ITEM_LEDGER_ENTRY_test_5_308300258__</t>
+  </si>
+  <si>
     <t>EXT_REPORT_RESULT_2_6</t>
   </si>
   <si>
@@ -180,18 +370,6 @@
   </si>
   <si>
     <t>PK_EXT_REPORT_RESULT_2_5</t>
-  </si>
-  <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>Index Name</t>
-  </si>
-  <si>
-    <t>External Fragmentation</t>
-  </si>
-  <si>
-    <t>Internal Fragmentation</t>
   </si>
 </sst>
 </file>
@@ -511,514 +689,1109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>74.054855448480396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>72.6278724981468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>58.6854460093897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>70.175006177415398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>67.920681986656803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>58.469718309859203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>50.037064492216501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>99.485352335708598</v>
+      </c>
+      <c r="D9">
+        <v>57.890857425253301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>96.1111111111111</v>
+      </c>
+      <c r="D10">
+        <v>73.690387941685202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>94.4444444444444</v>
+      </c>
+      <c r="D11">
+        <v>70.637373362984903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>90.593252226263601</v>
+      </c>
+      <c r="D12">
+        <v>52.811835927847802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>89.130434782608702</v>
+      </c>
+      <c r="D13">
+        <v>65.475500370644895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>86.991869918699194</v>
+      </c>
+      <c r="D14">
+        <v>65.835025945144594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="D15">
+        <v>47.957931801334297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>78.985507246376798</v>
+      </c>
+      <c r="D16">
+        <v>57.052730417593303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>77.7777777777778</v>
+      </c>
+      <c r="D17">
+        <v>56.545317519149997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>76.576576576576599</v>
+      </c>
+      <c r="D18">
+        <v>39.545366938472903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>69.085124783790505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>48.449468742278199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>73.357908847185001</v>
+      </c>
+      <c r="D21">
+        <v>62.8537311588831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>71.3055954088953</v>
+      </c>
+      <c r="D22">
+        <v>64.104682480850002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>69.672131147540995</v>
+      </c>
+      <c r="D23">
+        <v>69.752211514702296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>68.461736665807805</v>
+      </c>
+      <c r="D24">
+        <v>65.691957005188996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>67.795069549648801</v>
+      </c>
+      <c r="D25">
+        <v>65.902878675562206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D26">
+        <v>49.098097356066198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>63.551401869158902</v>
+      </c>
+      <c r="D27">
+        <v>41.024623177662498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>60.683760683760703</v>
+      </c>
+      <c r="D28">
+        <v>43.876970595502797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>53.434642945391701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>66.042747714356295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>54.9295774647887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>74.499629355077801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>41.8355201383741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>51.237546330615302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>47.680412371133997</v>
+      </c>
+      <c r="D35">
+        <v>52.928860884605903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>36.596523330283603</v>
+      </c>
+      <c r="D36">
+        <v>72.066308376575293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>33.572914696425201</v>
+      </c>
+      <c r="D37">
+        <v>73.200728935013601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>29.5167286245353</v>
+      </c>
+      <c r="D38">
+        <v>28.8227575982209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>18.9608515244452</v>
+      </c>
+      <c r="D39">
+        <v>44.271509760316299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>14.158483672071201</v>
+      </c>
+      <c r="D40">
+        <v>45.840523844823302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="D41">
+        <v>7.6904497158388896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="135.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>74.054855448480396</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>74.054855448480396</v>
+        <v>72.6278724981468</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>72.6278724981468</v>
+        <v>58.6854460093897</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>58.6854460093897</v>
+        <v>70.175006177415398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>70.175006177415398</v>
+        <v>67.920681986656803</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>67.920681986656803</v>
+        <v>58.469718309859203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>58.469718309859203</v>
+        <v>50.037064492216501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>99.485352335708598</v>
       </c>
       <c r="D8">
-        <v>50.037064492216501</v>
+        <v>57.890857425253301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>99.485352335708598</v>
+        <v>96.1111111111111</v>
       </c>
       <c r="D9">
-        <v>57.890857425253301</v>
+        <v>73.690387941685202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>96.1111111111111</v>
+        <v>94.4444444444444</v>
       </c>
       <c r="D10">
-        <v>73.690387941685202</v>
+        <v>70.637373362984903</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>94.4444444444444</v>
+        <v>90.593252226263601</v>
       </c>
       <c r="D11">
-        <v>70.637373362984903</v>
+        <v>52.811835927847802</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>90.593252226263601</v>
+        <v>89.130434782608702</v>
       </c>
       <c r="D12">
-        <v>52.811835927847802</v>
+        <v>65.475500370644895</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>89.130434782608702</v>
+        <v>86.991869918699194</v>
       </c>
       <c r="D13">
-        <v>65.475500370644895</v>
+        <v>65.835025945144594</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>86.991869918699194</v>
+        <v>85.714285714285694</v>
       </c>
       <c r="D14">
-        <v>65.835025945144594</v>
+        <v>47.957931801334297</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>85.714285714285694</v>
+        <v>78.985507246376798</v>
       </c>
       <c r="D15">
-        <v>47.957931801334297</v>
+        <v>57.052730417593303</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>78.985507246376798</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="D16">
-        <v>57.052730417593303</v>
+        <v>56.545317519149997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>77.7777777777778</v>
+        <v>76.576576576576599</v>
       </c>
       <c r="D17">
-        <v>56.545317519149997</v>
+        <v>39.545366938472903</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>76.576576576576599</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>39.545366938472903</v>
+        <v>69.085124783790505</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>75</v>
       </c>
       <c r="D19">
-        <v>69.085124783790505</v>
+        <v>48.449468742278199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>73.357908847185001</v>
       </c>
       <c r="D20">
-        <v>48.449468742278199</v>
+        <v>62.8537311588831</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C21">
-        <v>73.357908847185001</v>
+        <v>71.3055954088953</v>
       </c>
       <c r="D21">
-        <v>62.8537311588831</v>
+        <v>64.104682480850002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <v>71.3055954088953</v>
+        <v>69.672131147540995</v>
       </c>
       <c r="D22">
-        <v>64.104682480850002</v>
+        <v>69.752211514702296</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C23">
-        <v>69.672131147540995</v>
+        <v>68.461736665807805</v>
       </c>
       <c r="D23">
-        <v>69.752211514702296</v>
+        <v>65.691957005188996</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>68.461736665807805</v>
+        <v>67.795069549648801</v>
       </c>
       <c r="D24">
-        <v>65.691957005188996</v>
+        <v>65.902878675562206</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C25">
-        <v>67.795069549648801</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="D25">
-        <v>65.902878675562206</v>
+        <v>49.098097356066198</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>66.6666666666667</v>
+        <v>63.551401869158902</v>
       </c>
       <c r="D26">
-        <v>49.098097356066198</v>
+        <v>41.024623177662498</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C27">
-        <v>63.551401869158902</v>
+        <v>60.683760683760703</v>
       </c>
       <c r="D27">
-        <v>41.024623177662498</v>
+        <v>43.876970595502797</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>60.683760683760703</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>43.876970595502797</v>
+        <v>53.434642945391701</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29">
-        <v>53.434642945391701</v>
+        <v>66.042747714356295</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>50</v>
       </c>
       <c r="D30">
-        <v>66.042747714356295</v>
+        <v>54.9295774647887</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>50</v>
       </c>
       <c r="D31">
-        <v>54.9295774647887</v>
+        <v>74.499629355077801</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>50</v>
       </c>
       <c r="D32">
-        <v>74.499629355077801</v>
+        <v>41.8355201383741</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>50</v>
       </c>
       <c r="D33">
-        <v>41.8355201383741</v>
+        <v>51.237546330615302</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>47.680412371133997</v>
       </c>
       <c r="D34">
-        <v>51.237546330615302</v>
+        <v>52.928860884605903</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C35">
-        <v>47.680412371133997</v>
+        <v>38.0891393442623</v>
       </c>
       <c r="D35">
-        <v>52.928860884605903</v>
+        <v>15.867803311094599</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C36">
         <v>36.596523330283603</v>
@@ -1029,10 +1802,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>33.572914696425201</v>
@@ -1043,57 +1816,113 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C38">
-        <v>29.5167286245353</v>
+        <v>30.525233349153599</v>
       </c>
       <c r="D38">
-        <v>28.8227575982209</v>
+        <v>19.151087225105002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C39">
-        <v>18.9608515244452</v>
+        <v>29.5167286245353</v>
       </c>
       <c r="D39">
-        <v>44.271509760316299</v>
+        <v>28.8227575982209</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C40">
-        <v>14.158483672071201</v>
+        <v>24.172754619681999</v>
       </c>
       <c r="D40">
-        <v>45.840523844823302</v>
+        <v>10.0858290091426</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C41">
+        <v>24.024929634097301</v>
+      </c>
+      <c r="D41">
+        <v>10.321695082777399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42">
+        <v>23.6477572559367</v>
+      </c>
+      <c r="D42">
+        <v>11.138460588089901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43">
+        <v>18.9608515244452</v>
+      </c>
+      <c r="D43">
+        <v>44.271509760316299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44">
+        <v>14.158483672071201</v>
+      </c>
+      <c r="D44">
+        <v>45.840523844823302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45">
         <v>10.714285714285699</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>7.6904497158388896</v>
       </c>
     </row>
